--- a/tu_archivo_excel.xlsx
+++ b/tu_archivo_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\OTRAS_PRUEBAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\ALINEACION-MZ-HOCKEY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6400CC7D-FF9B-480C-A2FD-72C87CB7B186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649DEF0B-5DE6-4DA8-B47D-5BE82EA21922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
   <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tu_archivo_excel.xlsx
+++ b/tu_archivo_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\ALINEACION-MZ-HOCKEY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649DEF0B-5DE6-4DA8-B47D-5BE82EA21922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE43563-5D0B-4CF8-AA96-B7237637B379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1080" windowWidth="22905" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,9 +273,6 @@
     <t>Gau Zapico</t>
   </si>
   <si>
-    <t>Celio Japón</t>
-  </si>
-  <si>
     <t>Kaiet Rojas</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>Numero</t>
+  </si>
+  <si>
+    <t>Ragnar Annast</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -756,13 +756,13 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>8.0555555555555554</v>
+        <v>8.0555555559999998</v>
       </c>
       <c r="D2">
-        <v>7.7555555555555555</v>
+        <v>7.755555556</v>
       </c>
       <c r="E2">
-        <v>7.9222222222222216</v>
+        <v>7.9222222220000003</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -812,13 +812,13 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>7.8888888888888893</v>
+        <v>7.8888888890000004</v>
       </c>
       <c r="D3">
-        <v>8.1222222222222218</v>
+        <v>8.1222222219999995</v>
       </c>
       <c r="E3">
-        <v>7.988888888888888</v>
+        <v>7.988888889</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -868,13 +868,13 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>8.1388888888888893</v>
+        <v>8.1388888890000004</v>
       </c>
       <c r="D4">
-        <v>8.5277777777777786</v>
+        <v>8.5277777780000008</v>
       </c>
       <c r="E4">
-        <v>8.3333333333333339</v>
+        <v>8.3333333330000006</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -924,13 +924,13 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>8.31111111111111</v>
+        <v>8.3111111110000007</v>
       </c>
       <c r="D5">
-        <v>8.3833333333333329</v>
+        <v>8.3833333329999995</v>
       </c>
       <c r="E5">
-        <v>8.4444444444444446</v>
+        <v>8.4444444440000002</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -980,13 +980,13 @@
         <v>36</v>
       </c>
       <c r="C6">
-        <v>8.0888888888888886</v>
+        <v>8.0888888889999997</v>
       </c>
       <c r="D6">
-        <v>7.7777777777777777</v>
+        <v>7.7777777779999999</v>
       </c>
       <c r="E6">
-        <v>8.0666666666666664</v>
+        <v>8.0666666669999998</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1030,22 +1030,22 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C7">
-        <v>8.3333333333333339</v>
+        <v>8.2111111109999992</v>
       </c>
       <c r="D7">
-        <v>8.5833333333333339</v>
+        <v>8.9555555560000002</v>
       </c>
       <c r="E7">
-        <v>8.4222222222222243</v>
+        <v>8.488888889</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -1054,54 +1054,54 @@
         <v>8</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7">
         <v>10</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P7">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R7">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>8.0277777777777786</v>
+        <v>8.3333333330000006</v>
       </c>
       <c r="D8">
-        <v>8.4277777777777771</v>
+        <v>8.5833333330000006</v>
       </c>
       <c r="E8">
-        <v>8.2000000000000011</v>
+        <v>8.4222222220000003</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -1113,51 +1113,51 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P8">
         <v>68</v>
       </c>
       <c r="Q8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R8">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>8.7833333333333332</v>
+        <v>8.1</v>
       </c>
       <c r="D9">
-        <v>8.3777777777777782</v>
+        <v>8.4944444440000009</v>
       </c>
       <c r="E9">
-        <v>8.3999999999999986</v>
+        <v>8.2666666670000009</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -1166,87 +1166,87 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>9</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R9">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>8.1499999999999986</v>
+        <v>8.7833333329999999</v>
       </c>
       <c r="D10">
-        <v>8.3833333333333329</v>
+        <v>8.3777777780000005</v>
       </c>
       <c r="E10">
-        <v>8.31111111111111</v>
+        <v>8.4</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>8</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P10">
+        <v>75</v>
+      </c>
+      <c r="Q10">
         <v>69</v>
-      </c>
-      <c r="Q10">
-        <v>65</v>
       </c>
       <c r="R10">
         <v>48</v>
@@ -1254,75 +1254,75 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>8.5888888888888886</v>
+        <v>8.15</v>
       </c>
       <c r="D11">
-        <v>8.4111111111111114</v>
+        <v>8.3833333329999995</v>
       </c>
       <c r="E11">
-        <v>8.6000000000000014</v>
+        <v>8.3111111110000007</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P11">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q11">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="R11">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>7.7722222222222221</v>
+        <v>8.6444444439999995</v>
       </c>
       <c r="D12">
-        <v>8.0888888888888903</v>
+        <v>8.4666666670000001</v>
       </c>
       <c r="E12">
-        <v>7.7666666666666675</v>
+        <v>8.6555555559999995</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -1331,54 +1331,54 @@
         <v>9</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P12">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Q12">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="R12">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>8.1555555555555568</v>
+        <v>7.7722222219999999</v>
       </c>
       <c r="D13">
-        <v>8.1388888888888893</v>
+        <v>8.0888888889999997</v>
       </c>
       <c r="E13">
-        <v>8.0444444444444443</v>
+        <v>7.766666667</v>
       </c>
       <c r="F13">
         <v>7</v>
@@ -1387,57 +1387,57 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>8</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P13">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q13">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R13">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>8.5055555555555546</v>
+        <v>8.1555555559999995</v>
       </c>
       <c r="D14">
-        <v>8.2944444444444443</v>
+        <v>8.1388888890000004</v>
       </c>
       <c r="E14">
-        <v>8.3888888888888893</v>
+        <v>8.0444444439999998</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -1446,16 +1446,16 @@
         <v>7</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14">
         <v>6</v>
@@ -1464,217 +1464,218 @@
         <v>8</v>
       </c>
       <c r="O14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q14">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R14">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>5.8944444444444439</v>
+        <v>8.5055555559999991</v>
       </c>
       <c r="D15">
-        <v>5.8722222222222227</v>
+        <v>8.2944444439999998</v>
       </c>
       <c r="E15">
-        <v>6.1999999999999993</v>
+        <v>8.3888888890000004</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
         <v>10</v>
       </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <v>7</v>
-      </c>
       <c r="P15">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q15">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="R15">
-        <v>26</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="U15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C16">
-        <v>7.9333333333333336</v>
+        <v>6.0611111109999998</v>
       </c>
       <c r="D16">
-        <v>8.6277777777777782</v>
+        <v>6.0388888889999999</v>
       </c>
       <c r="E16">
-        <v>8.1555555555555568</v>
+        <v>6.3666666669999996</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P16">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q16">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="R16">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>8.6111111111111107</v>
+        <v>7.9333333330000002</v>
       </c>
       <c r="D17">
-        <v>8.4722222222222214</v>
+        <v>8.6277777780000005</v>
       </c>
       <c r="E17">
-        <v>8.5222222222222221</v>
+        <v>8.1555555559999995</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>9</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P17">
         <v>71</v>
       </c>
       <c r="Q17">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R17">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>8.06111111111111</v>
+        <v>8.6833333330000002</v>
       </c>
       <c r="D18">
-        <v>8.2166666666666668</v>
+        <v>8.5388888890000008</v>
       </c>
       <c r="E18">
-        <v>8.1000000000000014</v>
+        <v>8.5888888889999997</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>9</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -1683,42 +1684,42 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P18">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q18">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R18">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>8.2444444444444454</v>
+        <v>8.0611111110000007</v>
       </c>
       <c r="D19">
-        <v>7.8388888888888886</v>
+        <v>8.2166666670000001</v>
       </c>
       <c r="E19">
-        <v>8.0333333333333332</v>
+        <v>8.1</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -1727,128 +1728,128 @@
         <v>6</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J19">
         <v>7</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P19">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q19">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R19">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>7.9611111111111121</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D20">
-        <v>8.3500000000000014</v>
+        <v>7.8944444440000003</v>
       </c>
       <c r="E20">
-        <v>8.1888888888888882</v>
+        <v>8.0888888889999997</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>9</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <v>7</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P20">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q20">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R20">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>7.8555555555555543</v>
+        <v>8.0333333329999999</v>
       </c>
       <c r="D21">
-        <v>8.2666666666666675</v>
+        <v>8.4166666669999994</v>
       </c>
       <c r="E21">
-        <v>8.1666666666666661</v>
+        <v>8.2555555559999991</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K21">
         <v>8</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <v>8</v>
@@ -1857,13 +1858,13 @@
         <v>6</v>
       </c>
       <c r="O21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P21">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q21">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R21">
         <v>45</v>
@@ -1871,75 +1872,75 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>8.6499999999999986</v>
+        <v>7.9111111110000003</v>
       </c>
       <c r="D22">
-        <v>8.3000000000000007</v>
+        <v>8.3222222220000006</v>
       </c>
       <c r="E22">
-        <v>8.4555555555555557</v>
+        <v>8.2222222219999992</v>
       </c>
       <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
         <v>5</v>
       </c>
-      <c r="G22">
-        <v>9</v>
-      </c>
-      <c r="H22">
-        <v>9</v>
-      </c>
-      <c r="I22">
-        <v>8</v>
-      </c>
       <c r="J22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P22">
         <v>70</v>
       </c>
       <c r="Q22">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R22">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>8.1777777777777771</v>
+        <v>8.65</v>
       </c>
       <c r="D23">
-        <v>7.8222222222222211</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E23">
-        <v>7.9444444444444446</v>
+        <v>8.4555555560000002</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -1951,87 +1952,87 @@
         <v>9</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J23">
         <v>7</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P23">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q23">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R23">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>8.2722222222222221</v>
+        <v>8.238888889</v>
       </c>
       <c r="D24">
-        <v>7.6944444444444446</v>
+        <v>7.8944444440000003</v>
       </c>
       <c r="E24">
-        <v>7.9222222222222216</v>
+        <v>8.0666666669999998</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>9</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K24">
         <v>6</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24">
         <v>8</v>
       </c>
       <c r="P24">
+        <v>68</v>
+      </c>
+      <c r="Q24">
         <v>66</v>
-      </c>
-      <c r="Q24">
-        <v>65</v>
       </c>
       <c r="R24">
         <v>47</v>
@@ -2039,90 +2040,90 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>7.9055555555555559</v>
+        <v>8.3444444440000005</v>
       </c>
       <c r="D25">
-        <v>7.7888888888888879</v>
+        <v>7.761111111</v>
       </c>
       <c r="E25">
-        <v>7.8444444444444441</v>
+        <v>7.988888889</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O25">
         <v>8</v>
       </c>
       <c r="P25">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R25">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26">
-        <v>8.2722222222222221</v>
+        <v>7.9777777780000001</v>
       </c>
       <c r="D26">
-        <v>7.7611111111111102</v>
+        <v>7.8555555559999997</v>
       </c>
       <c r="E26">
-        <v>7.9222222222222216</v>
+        <v>7.9111111110000003</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>9</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K26">
         <v>7</v>
@@ -2131,19 +2132,19 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O26">
         <v>8</v>
       </c>
       <c r="P26">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q26">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R26">
         <v>49</v>
@@ -2151,55 +2152,55 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C27">
-        <v>7.2611111111111102</v>
+        <v>8.4055555559999995</v>
       </c>
       <c r="D27">
-        <v>8.0388888888888879</v>
+        <v>7.9</v>
       </c>
       <c r="E27">
-        <v>7.4333333333333327</v>
+        <v>8.1111111109999996</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27">
         <v>10</v>
       </c>
-      <c r="H27">
-        <v>8</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>8</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <v>4</v>
-      </c>
-      <c r="N27">
-        <v>6</v>
-      </c>
       <c r="O27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P27">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q27">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="R27">
         <v>49</v>
@@ -2207,75 +2208,75 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C28">
-        <v>7.1166666666666663</v>
+        <v>7.261111111</v>
       </c>
       <c r="D28">
-        <v>6.9277777777777771</v>
+        <v>8.0388888890000008</v>
       </c>
       <c r="E28">
-        <v>6.5555555555555554</v>
+        <v>7.4333333330000002</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P28">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="R28">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>7.3666666666666663</v>
+        <v>7.238888889</v>
       </c>
       <c r="D29">
-        <v>7.383333333333332</v>
+        <v>7.0388888889999999</v>
       </c>
       <c r="E29">
-        <v>7.3000000000000007</v>
+        <v>6.6555555560000004</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -2284,54 +2285,54 @@
         <v>9</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29">
         <v>6</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P29">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q29">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="R29">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>6.916666666666667</v>
+        <v>7.4277777780000003</v>
       </c>
       <c r="D30">
-        <v>5.9499999999999993</v>
+        <v>7.4555555560000002</v>
       </c>
       <c r="E30">
-        <v>6.177777777777778</v>
+        <v>7.4222222220000003</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2343,228 +2344,228 @@
         <v>6</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>6</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P30">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="R30">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C31">
-        <v>7.4388888888888891</v>
+        <v>6.9166666670000003</v>
       </c>
       <c r="D31">
-        <v>7.0222222222222221</v>
+        <v>5.95</v>
       </c>
       <c r="E31">
-        <v>6.822222222222222</v>
+        <v>6.1777777780000003</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>9</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>9</v>
       </c>
       <c r="O31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q31">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R31">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>3.3111111111111113</v>
+        <v>7.55</v>
       </c>
       <c r="D32">
-        <v>3.4944444444444445</v>
+        <v>7.1444444440000003</v>
       </c>
       <c r="E32">
-        <v>3.5999999999999996</v>
+        <v>6.9222222220000003</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P32">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="R32">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C33">
-        <v>5.3555555555555561</v>
+        <v>3.3111111110000002</v>
       </c>
       <c r="D33">
-        <v>6.7111111111111112</v>
+        <v>3.494444444</v>
       </c>
       <c r="E33">
-        <v>5.9111111111111105</v>
+        <v>3.6</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>7</v>
       </c>
       <c r="P33">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="R33">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C34">
-        <v>6.2388888888888898</v>
+        <v>5.4666666670000001</v>
       </c>
       <c r="D34">
-        <v>4.5388888888888888</v>
+        <v>6.8333333329999997</v>
       </c>
       <c r="E34">
-        <v>5.2444444444444445</v>
+        <v>6.011111111</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2573,101 +2574,101 @@
         <v>3</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P34">
+        <v>46</v>
+      </c>
+      <c r="Q34">
+        <v>43</v>
+      </c>
+      <c r="R34">
         <v>39</v>
-      </c>
-      <c r="Q34">
-        <v>37</v>
-      </c>
-      <c r="R34">
-        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>6.5444444444444443</v>
+        <v>6.238888889</v>
       </c>
       <c r="D35">
-        <v>6.4111111111111114</v>
+        <v>4.5388888889999999</v>
       </c>
       <c r="E35">
-        <v>6.4777777777777779</v>
+        <v>5.244444444</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>9</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P35">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="R35">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C36">
-        <v>6.844444444444445</v>
+        <v>6.6555555560000004</v>
       </c>
       <c r="D36">
-        <v>7.3999999999999995</v>
+        <v>6.5333333329999999</v>
       </c>
       <c r="E36">
-        <v>6.8999999999999995</v>
+        <v>6.5777777779999997</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -2676,149 +2677,149 @@
         <v>9</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O36">
         <v>9</v>
       </c>
       <c r="P36">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q36">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R36">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>6.9777777780000001</v>
+      </c>
+      <c r="D37">
+        <v>7.5388888889999999</v>
+      </c>
+      <c r="E37">
+        <v>7.0888888889999997</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>9</v>
+      </c>
+      <c r="P37">
+        <v>54</v>
+      </c>
+      <c r="Q37">
+        <v>53</v>
+      </c>
+      <c r="R37">
         <v>47</v>
-      </c>
-      <c r="C37">
-        <v>7.0888888888888886</v>
-      </c>
-      <c r="D37">
-        <v>6.905555555555555</v>
-      </c>
-      <c r="E37">
-        <v>6.7444444444444445</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>9</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>6</v>
-      </c>
-      <c r="K37">
-        <v>8</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37">
-        <v>9</v>
-      </c>
-      <c r="O37">
-        <v>8</v>
-      </c>
-      <c r="P37">
-        <v>51</v>
-      </c>
-      <c r="Q37">
-        <v>51</v>
-      </c>
-      <c r="R37">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C38">
-        <v>3.0999999999999996</v>
+        <v>7.15</v>
       </c>
       <c r="D38">
-        <v>3.2277777777777774</v>
+        <v>6.9777777780000001</v>
       </c>
       <c r="E38">
-        <v>3.1666666666666665</v>
+        <v>6.8666666669999996</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L38">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P38">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R38">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -2829,13 +2830,13 @@
         <v>54</v>
       </c>
       <c r="C39">
-        <v>4.4666666666666668</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="D39">
-        <v>5.0333333333333332</v>
+        <v>5.3944444440000003</v>
       </c>
       <c r="E39">
-        <v>4.5777777777777784</v>
+        <v>4.8111111109999998</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -2850,10 +2851,10 @@
         <v>2</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -2868,13 +2869,13 @@
         <v>4</v>
       </c>
       <c r="P39">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R39">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -2885,13 +2886,13 @@
         <v>53</v>
       </c>
       <c r="C40">
-        <v>6.4944444444444445</v>
+        <v>6.494444444</v>
       </c>
       <c r="D40">
-        <v>5.5055555555555555</v>
+        <v>5.505555556</v>
       </c>
       <c r="E40">
-        <v>5.7777777777777777</v>
+        <v>5.7777777779999999</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -2941,13 +2942,13 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>5.833333333333333</v>
+        <v>6.2055555560000002</v>
       </c>
       <c r="D41">
-        <v>6.5777777777777775</v>
+        <v>6.75</v>
       </c>
       <c r="E41">
-        <v>6.0555555555555554</v>
+        <v>6.2888888889999999</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -2962,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K41">
         <v>9</v>
@@ -2974,19 +2975,19 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O41">
         <v>9</v>
       </c>
       <c r="P41">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R41">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -2997,13 +2998,13 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>4.8000000000000007</v>
+        <v>5.1888888890000002</v>
       </c>
       <c r="D42">
-        <v>5.7444444444444436</v>
+        <v>5.9444444440000002</v>
       </c>
       <c r="E42">
-        <v>5.1444444444444439</v>
+        <v>5.4444444440000002</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -3030,19 +3031,19 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P42">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q42">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R42">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3053,13 +3054,13 @@
         <v>67</v>
       </c>
       <c r="C43">
-        <v>5.2444444444444445</v>
+        <v>5.3555555559999997</v>
       </c>
       <c r="D43">
-        <v>3.9833333333333325</v>
+        <v>4.1055555559999997</v>
       </c>
       <c r="E43">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -3068,7 +3069,7 @@
         <v>8</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -3092,13 +3093,13 @@
         <v>5</v>
       </c>
       <c r="P43">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q43">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R43">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -3109,13 +3110,13 @@
         <v>61</v>
       </c>
       <c r="C44">
-        <v>5.6055555555555561</v>
+        <v>5.6666666670000003</v>
       </c>
       <c r="D44">
-        <v>4.4833333333333325</v>
+        <v>4.733333333</v>
       </c>
       <c r="E44">
-        <v>4.9111111111111114</v>
+        <v>5.0444444439999998</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3133,7 +3134,7 @@
         <v>2</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -3148,13 +3149,13 @@
         <v>6</v>
       </c>
       <c r="P44">
+        <v>37</v>
+      </c>
+      <c r="Q44">
         <v>36</v>
       </c>
-      <c r="Q44">
-        <v>35</v>
-      </c>
       <c r="R44">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -3165,13 +3166,13 @@
         <v>56</v>
       </c>
       <c r="C45">
-        <v>5.1833333333333336</v>
+        <v>5.244444444</v>
       </c>
       <c r="D45">
-        <v>5.1444444444444448</v>
+        <v>5.3944444440000003</v>
       </c>
       <c r="E45">
-        <v>5.1222222222222227</v>
+        <v>5.255555556</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -3189,7 +3190,7 @@
         <v>2</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -3204,13 +3205,13 @@
         <v>6</v>
       </c>
       <c r="P45">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q45">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R45">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -3221,13 +3222,13 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>5.5111111111111111</v>
+        <v>5.994444444</v>
       </c>
       <c r="D46">
-        <v>5.8944444444444439</v>
+        <v>6.1888888890000002</v>
       </c>
       <c r="E46">
-        <v>5.6111111111111107</v>
+        <v>5.9444444440000002</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -3236,13 +3237,13 @@
         <v>9</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -3254,19 +3255,19 @@
         <v>2</v>
       </c>
       <c r="N46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O46">
         <v>7</v>
       </c>
       <c r="P46">
+        <v>45</v>
+      </c>
+      <c r="Q46">
         <v>42</v>
       </c>
-      <c r="Q46">
-        <v>39</v>
-      </c>
       <c r="R46">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -3277,13 +3278,13 @@
         <v>55</v>
       </c>
       <c r="C47">
-        <v>6.0166666666666675</v>
+        <v>6.25</v>
       </c>
       <c r="D47">
-        <v>5.2722222222222221</v>
+        <v>5.505555556</v>
       </c>
       <c r="E47">
-        <v>5.4333333333333336</v>
+        <v>5.6333333330000004</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3292,13 +3293,13 @@
         <v>9</v>
       </c>
       <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
         <v>4</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
       </c>
       <c r="K47">
         <v>5</v>
@@ -3316,13 +3317,13 @@
         <v>6</v>
       </c>
       <c r="P47">
+        <v>43</v>
+      </c>
+      <c r="Q47">
         <v>41</v>
       </c>
-      <c r="Q47">
-        <v>39</v>
-      </c>
       <c r="R47">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -3333,13 +3334,13 @@
         <v>57</v>
       </c>
       <c r="C48">
-        <v>4.177777777777778</v>
+        <v>4.1777777780000003</v>
       </c>
       <c r="D48">
-        <v>4.7611111111111102</v>
+        <v>4.761111111</v>
       </c>
       <c r="E48">
-        <v>4.2666666666666666</v>
+        <v>4.266666667</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -3389,13 +3390,13 @@
         <v>64</v>
       </c>
       <c r="C49">
-        <v>3.4888888888888889</v>
+        <v>3.488888889</v>
       </c>
       <c r="D49">
-        <v>4.0277777777777777</v>
+        <v>4.0277777779999999</v>
       </c>
       <c r="E49">
-        <v>3.7777777777777777</v>
+        <v>3.7777777779999999</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -3442,16 +3443,16 @@
         <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50">
-        <v>4.6222222222222227</v>
+        <v>4.761111111</v>
       </c>
       <c r="D50">
-        <v>3.1055555555555556</v>
+        <v>3.244444444</v>
       </c>
       <c r="E50">
-        <v>3.7777777777777777</v>
+        <v>3.9444444440000002</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -3481,16 +3482,16 @@
         <v>9</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P50">
+        <v>30</v>
+      </c>
+      <c r="Q50">
         <v>29</v>
       </c>
-      <c r="Q50">
-        <v>28</v>
-      </c>
       <c r="R50">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -3501,13 +3502,13 @@
         <v>59</v>
       </c>
       <c r="C51">
-        <v>4.4611111111111112</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D51">
-        <v>4.4499999999999993</v>
+        <v>4.5888888889999997</v>
       </c>
       <c r="E51">
-        <v>4.1999999999999993</v>
+        <v>4.3666666669999996</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -3537,16 +3538,16 @@
         <v>7</v>
       </c>
       <c r="O51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q51">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R51">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -3557,13 +3558,13 @@
         <v>58</v>
       </c>
       <c r="C52">
-        <v>2.9611111111111108</v>
+        <v>3.1</v>
       </c>
       <c r="D52">
-        <v>4.2611111111111102</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E52">
-        <v>3.6111111111111112</v>
+        <v>3.7777777779999999</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -3593,16 +3594,16 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P52">
+        <v>27</v>
+      </c>
+      <c r="Q52">
         <v>26</v>
       </c>
-      <c r="Q52">
-        <v>25</v>
-      </c>
       <c r="R52">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -3613,19 +3614,19 @@
         <v>68</v>
       </c>
       <c r="C53">
-        <v>4.322222222222222</v>
+        <v>4.738888889</v>
       </c>
       <c r="D53">
-        <v>3.7388888888888889</v>
+        <v>3.9666666670000001</v>
       </c>
       <c r="E53">
-        <v>3.9777777777777774</v>
+        <v>4.2777777779999999</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -3646,19 +3647,19 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O53">
         <v>5</v>
       </c>
       <c r="P53">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q53">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R53">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -3666,16 +3667,16 @@
         <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54">
-        <v>2.838888888888889</v>
+        <v>2.8944444439999999</v>
       </c>
       <c r="D54">
-        <v>2.8055555555555554</v>
+        <v>2.861111111</v>
       </c>
       <c r="E54">
-        <v>2.8222222222222224</v>
+        <v>2.877777778</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -3696,7 +3697,7 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M54">
         <v>2</v>
@@ -3708,7 +3709,7 @@
         <v>3</v>
       </c>
       <c r="P54">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q54">
         <v>22</v>
@@ -3725,13 +3726,13 @@
         <v>69</v>
       </c>
       <c r="C55">
-        <v>5.2611111111111111</v>
+        <v>5.511111111</v>
       </c>
       <c r="D55">
-        <v>3.9388888888888891</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>4.5</v>
+        <v>4.6333333330000004</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -3758,19 +3759,19 @@
         <v>2</v>
       </c>
       <c r="N55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O55">
         <v>4</v>
       </c>
       <c r="P55">
+        <v>35</v>
+      </c>
+      <c r="Q55">
         <v>34</v>
       </c>
-      <c r="Q55">
-        <v>33</v>
-      </c>
       <c r="R55">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -3781,13 +3782,13 @@
         <v>65</v>
       </c>
       <c r="C56">
-        <v>3.3388888888888886</v>
+        <v>3.3388888890000001</v>
       </c>
       <c r="D56">
-        <v>3.9111111111111114</v>
+        <v>3.9111111109999999</v>
       </c>
       <c r="E56">
-        <v>3.5999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -3837,19 +3838,19 @@
         <v>72</v>
       </c>
       <c r="C57">
-        <v>3.6555555555555554</v>
+        <v>3.8833333329999999</v>
       </c>
       <c r="D57">
-        <v>3.4388888888888887</v>
+        <v>3.8555555560000001</v>
       </c>
       <c r="E57">
-        <v>3.5555555555555554</v>
+        <v>3.8555555560000001</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -3861,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57">
         <v>3</v>
@@ -3876,13 +3877,13 @@
         <v>5</v>
       </c>
       <c r="P57">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R57">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -3893,13 +3894,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>4.5222222222222221</v>
+        <v>4.5222222219999999</v>
       </c>
       <c r="D58">
         <v>4.3499999999999996</v>
       </c>
       <c r="E58">
-        <v>4.3666666666666663</v>
+        <v>4.3666666669999996</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -3949,13 +3950,13 @@
         <v>71</v>
       </c>
       <c r="C59">
-        <v>2.838888888888889</v>
+        <v>2.9777777780000001</v>
       </c>
       <c r="D59">
-        <v>3.2222222222222223</v>
+        <v>3.361111111</v>
       </c>
       <c r="E59">
-        <v>2.9777777777777779</v>
+        <v>3.1444444439999999</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -3985,16 +3986,16 @@
         <v>2</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P59">
+        <v>24</v>
+      </c>
+      <c r="Q59">
         <v>23</v>
       </c>
-      <c r="Q59">
-        <v>22</v>
-      </c>
       <c r="R59">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -4005,19 +4006,19 @@
         <v>70</v>
       </c>
       <c r="C60">
-        <v>2.8000000000000003</v>
+        <v>3.0277777779999999</v>
       </c>
       <c r="D60">
-        <v>3.1833333333333331</v>
+        <v>3.6</v>
       </c>
       <c r="E60">
-        <v>3.0333333333333332</v>
+        <v>3.3333333330000001</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -4029,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -4044,13 +4045,13 @@
         <v>4</v>
       </c>
       <c r="P60">
+        <v>24</v>
+      </c>
+      <c r="Q60">
         <v>22</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>20</v>
-      </c>
-      <c r="R60">
-        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -4061,19 +4062,19 @@
         <v>74</v>
       </c>
       <c r="C61">
-        <v>2.3888888888888888</v>
+        <v>2.5555555559999998</v>
       </c>
       <c r="D61">
-        <v>2.8000000000000003</v>
+        <v>2.9666666670000001</v>
       </c>
       <c r="E61">
-        <v>2.5333333333333332</v>
+        <v>2.7</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -4100,13 +4101,13 @@
         <v>1</v>
       </c>
       <c r="P61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q61">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R61">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -4117,52 +4118,52 @@
         <v>77</v>
       </c>
       <c r="C62">
-        <v>3.0277777777777777</v>
+        <v>3.4444444440000002</v>
       </c>
       <c r="D62">
-        <v>2.8277777777777779</v>
+        <v>3.0555555559999998</v>
       </c>
       <c r="E62">
-        <v>2.7777777777777777</v>
+        <v>3.0777777780000002</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
       <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
         <v>5</v>
       </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62">
-        <v>2</v>
-      </c>
-      <c r="K62">
-        <v>3</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>4</v>
-      </c>
       <c r="O62">
         <v>1</v>
       </c>
       <c r="P62">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R62">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -4173,13 +4174,13 @@
         <v>73</v>
       </c>
       <c r="C63">
-        <v>4.7611111111111111</v>
+        <v>4.761111111</v>
       </c>
       <c r="D63">
-        <v>3.6111111111111112</v>
+        <v>3.611111111</v>
       </c>
       <c r="E63">
-        <v>3.9888888888888889</v>
+        <v>3.988888889</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -4229,13 +4230,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>3.5333333333333332</v>
+        <v>3.6722222219999998</v>
       </c>
       <c r="D64">
-        <v>3.6999999999999997</v>
+        <v>3.8388888890000001</v>
       </c>
       <c r="E64">
-        <v>3.5111111111111111</v>
+        <v>3.6777777779999998</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -4265,16 +4266,16 @@
         <v>3</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P64">
+        <v>28</v>
+      </c>
+      <c r="Q64">
         <v>27</v>
       </c>
-      <c r="Q64">
-        <v>26</v>
-      </c>
       <c r="R64">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -4282,22 +4283,22 @@
         <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65">
-        <v>3.2611111111111111</v>
+        <v>3.738888889</v>
       </c>
       <c r="D65">
-        <v>2.6833333333333331</v>
+        <v>3.1611111109999999</v>
       </c>
       <c r="E65">
-        <v>2.9444444444444446</v>
+        <v>3.377777778</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -4309,7 +4310,7 @@
         <v>2</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4318,19 +4319,19 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O65">
         <v>3</v>
       </c>
       <c r="P65">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q65">
+        <v>24</v>
+      </c>
+      <c r="R65">
         <v>21</v>
-      </c>
-      <c r="R65">
-        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -4338,22 +4339,22 @@
         <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66">
-        <v>3.0666666666666669</v>
+        <v>3.483333333</v>
       </c>
       <c r="D66">
-        <v>2.7111111111111108</v>
+        <v>2.9388888889999998</v>
       </c>
       <c r="E66">
-        <v>2.8666666666666663</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -4374,19 +4375,19 @@
         <v>2</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O66">
         <v>2</v>
       </c>
       <c r="P66">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q66">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R66">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -4394,16 +4395,16 @@
         <v>183</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67">
-        <v>2.3166666666666669</v>
+        <v>2.65</v>
       </c>
       <c r="D67">
-        <v>2.2999999999999998</v>
+        <v>2.6333333329999999</v>
       </c>
       <c r="E67">
-        <v>2.3333333333333335</v>
+        <v>2.7222222220000001</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -4424,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -4433,16 +4434,16 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P67">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q67">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R67">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -4453,19 +4454,19 @@
         <v>76</v>
       </c>
       <c r="C68">
-        <v>3.2444444444444445</v>
+        <v>3.6611111109999999</v>
       </c>
       <c r="D68">
-        <v>2.8611111111111112</v>
+        <v>3.0888888890000001</v>
       </c>
       <c r="E68">
-        <v>3.0444444444444443</v>
+        <v>3.3444444440000001</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -4486,19 +4487,19 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O68">
         <v>4</v>
       </c>
       <c r="P68">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q68">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R68">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -4506,16 +4507,16 @@
         <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69">
-        <v>2.1555555555555554</v>
+        <v>2.4055555559999999</v>
       </c>
       <c r="D69">
-        <v>2.322222222222222</v>
+        <v>2.3833333329999999</v>
       </c>
       <c r="E69">
-        <v>2.2111111111111108</v>
+        <v>2.3444444440000001</v>
       </c>
       <c r="F69">
         <v>3</v>
@@ -4542,19 +4543,19 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O69">
         <v>2</v>
       </c>
       <c r="P69">
+        <v>19</v>
+      </c>
+      <c r="Q69">
         <v>18</v>
       </c>
-      <c r="Q69">
-        <v>17</v>
-      </c>
       <c r="R69">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -4562,22 +4563,22 @@
         <v>187</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70">
-        <v>1.4166666666666667</v>
+        <v>1.5833333329999999</v>
       </c>
       <c r="D70">
-        <v>1.6277777777777778</v>
+        <v>1.794444444</v>
       </c>
       <c r="E70">
-        <v>1.4777777777777779</v>
+        <v>1.6444444439999999</v>
       </c>
       <c r="F70">
         <v>2</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -4604,13 +4605,13 @@
         <v>1</v>
       </c>
       <c r="P70">
+        <v>15</v>
+      </c>
+      <c r="Q70">
         <v>14</v>
       </c>
-      <c r="Q70">
-        <v>13</v>
-      </c>
       <c r="R70">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -4618,16 +4619,16 @@
         <v>188</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71">
-        <v>2.1555555555555554</v>
+        <v>2.5444444439999998</v>
       </c>
       <c r="D71">
-        <v>1.9333333333333331</v>
+        <v>2.1333333329999999</v>
       </c>
       <c r="E71">
-        <v>2.0444444444444443</v>
+        <v>2.3444444440000001</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -4654,19 +4655,19 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q71">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R71">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -4674,16 +4675,16 @@
         <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72">
-        <v>2.161111111111111</v>
+        <v>2.1611111109999999</v>
       </c>
       <c r="D72">
-        <v>2.3444444444444446</v>
+        <v>2.3444444440000001</v>
       </c>
       <c r="E72">
-        <v>2.2777777777777777</v>
+        <v>2.2777777779999999</v>
       </c>
       <c r="F72">
         <v>3</v>
@@ -4730,22 +4731,22 @@
         <v>190</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73">
-        <v>1.6222222222222222</v>
+        <v>1.9277777780000001</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>2.3055555559999998</v>
       </c>
       <c r="E73">
-        <v>1.822222222222222</v>
+        <v>2.1555555559999999</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -4769,16 +4770,16 @@
         <v>1</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q73">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R73">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -4786,22 +4787,22 @@
         <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74">
-        <v>1.3722222222222222</v>
+        <v>1.7888888890000001</v>
       </c>
       <c r="D74">
-        <v>1.5555555555555556</v>
+        <v>1.7833333330000001</v>
       </c>
       <c r="E74">
-        <v>1.3888888888888888</v>
+        <v>1.688888889</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -4822,19 +4823,19 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O74">
         <v>1</v>
       </c>
       <c r="P74">
+        <v>13</v>
+      </c>
+      <c r="Q74">
+        <v>12</v>
+      </c>
+      <c r="R74">
         <v>11</v>
-      </c>
-      <c r="Q74">
-        <v>10</v>
-      </c>
-      <c r="R74">
-        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -4842,16 +4843,16 @@
         <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75">
-        <v>1.6444444444444446</v>
+        <v>1.8388888889999999</v>
       </c>
       <c r="D75">
-        <v>2.0388888888888892</v>
+        <v>2.2166666670000001</v>
       </c>
       <c r="E75">
-        <v>1.9777777777777779</v>
+        <v>2.1444444439999999</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -4863,10 +4864,10 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -4884,13 +4885,13 @@
         <v>2</v>
       </c>
       <c r="P75">
+        <v>19</v>
+      </c>
+      <c r="Q75">
         <v>17</v>
       </c>
-      <c r="Q75">
-        <v>15</v>
-      </c>
       <c r="R75">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -4898,16 +4899,16 @@
         <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76">
-        <v>2.4333333333333331</v>
+        <v>2.5722222220000002</v>
       </c>
       <c r="D76">
-        <v>2.0500000000000003</v>
+        <v>2.1888888889999998</v>
       </c>
       <c r="E76">
-        <v>2.1444444444444444</v>
+        <v>2.3111111110000002</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -4937,16 +4938,16 @@
         <v>3</v>
       </c>
       <c r="O76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P76">
+        <v>19</v>
+      </c>
+      <c r="Q76">
         <v>18</v>
       </c>
-      <c r="Q76">
-        <v>17</v>
-      </c>
       <c r="R76">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -4954,16 +4955,16 @@
         <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77">
-        <v>2.2666666666666666</v>
+        <v>2.4055555559999999</v>
       </c>
       <c r="D77">
-        <v>1.7222222222222223</v>
+        <v>1.861111111</v>
       </c>
       <c r="E77">
-        <v>2.0111111111111111</v>
+        <v>2.1777777779999998</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -4993,16 +4994,16 @@
         <v>4</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P77">
+        <v>17</v>
+      </c>
+      <c r="Q77">
         <v>16</v>
       </c>
-      <c r="Q77">
-        <v>15</v>
-      </c>
       <c r="R77">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -5010,16 +5011,16 @@
         <v>195</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78">
-        <v>1.7944444444444443</v>
+        <v>1.794444444</v>
       </c>
       <c r="D78">
-        <v>1.7999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="E78">
-        <v>1.7777777777777777</v>
+        <v>1.7777777779999999</v>
       </c>
       <c r="F78">
         <v>3</v>
@@ -5066,22 +5067,22 @@
         <v>196</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79">
-        <v>2.2833333333333332</v>
+        <v>2.7</v>
       </c>
       <c r="D79">
-        <v>1.9055555555555554</v>
+        <v>2.1333333329999999</v>
       </c>
       <c r="E79">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="F79">
         <v>3</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -5102,19 +5103,19 @@
         <v>2</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O79">
         <v>3</v>
       </c>
       <c r="P79">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q79">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R79">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
@@ -5745,8 +5746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477F31F5-C98D-4162-9513-9C9D9CB0A037}">
   <dimension ref="A1:R79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R79"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5812,13 +5813,13 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>8.0555555555555554</v>
+        <v>8.0555555559999998</v>
       </c>
       <c r="D2">
-        <v>7.7555555555555555</v>
+        <v>7.755555556</v>
       </c>
       <c r="E2">
-        <v>7.9222222222222216</v>
+        <v>7.9222222220000003</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -5868,13 +5869,13 @@
         <v>24</v>
       </c>
       <c r="C3">
-        <v>7.8888888888888893</v>
+        <v>7.8888888890000004</v>
       </c>
       <c r="D3">
-        <v>8.1222222222222218</v>
+        <v>8.1222222219999995</v>
       </c>
       <c r="E3">
-        <v>7.988888888888888</v>
+        <v>7.988888889</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -5924,13 +5925,13 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>8.1388888888888893</v>
+        <v>8.1388888890000004</v>
       </c>
       <c r="D4">
-        <v>8.5277777777777786</v>
+        <v>8.5277777780000008</v>
       </c>
       <c r="E4">
-        <v>8.3333333333333339</v>
+        <v>8.3333333330000006</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -5980,13 +5981,13 @@
         <v>26</v>
       </c>
       <c r="C5">
-        <v>8.31111111111111</v>
+        <v>8.3111111110000007</v>
       </c>
       <c r="D5">
-        <v>8.3833333333333329</v>
+        <v>8.3833333329999995</v>
       </c>
       <c r="E5">
-        <v>8.4444444444444446</v>
+        <v>8.4444444440000002</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -6036,13 +6037,13 @@
         <v>36</v>
       </c>
       <c r="C6">
-        <v>8.0888888888888886</v>
+        <v>8.0888888889999997</v>
       </c>
       <c r="D6">
-        <v>7.7777777777777777</v>
+        <v>7.7777777779999999</v>
       </c>
       <c r="E6">
-        <v>8.0666666666666664</v>
+        <v>8.0666666669999998</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -6086,22 +6087,22 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C7">
-        <v>8.3333333333333339</v>
+        <v>8.2111111109999992</v>
       </c>
       <c r="D7">
-        <v>8.5833333333333339</v>
+        <v>8.9555555560000002</v>
       </c>
       <c r="E7">
-        <v>8.4222222222222243</v>
+        <v>8.488888889</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -6110,54 +6111,54 @@
         <v>8</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K7">
         <v>10</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P7">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R7">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>8.0277777777777786</v>
+        <v>8.3333333330000006</v>
       </c>
       <c r="D8">
-        <v>8.4277777777777771</v>
+        <v>8.5833333330000006</v>
       </c>
       <c r="E8">
-        <v>8.2000000000000011</v>
+        <v>8.4222222220000003</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>9</v>
@@ -6169,51 +6170,51 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P8">
         <v>68</v>
       </c>
       <c r="Q8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="R8">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>8.7833333333333332</v>
+        <v>8.1</v>
       </c>
       <c r="D9">
-        <v>8.3777777777777782</v>
+        <v>8.4944444440000009</v>
       </c>
       <c r="E9">
-        <v>8.3999999999999986</v>
+        <v>8.2666666670000009</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -6222,87 +6223,87 @@
         <v>8</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>9</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R9">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>8.1499999999999986</v>
+        <v>8.7833333329999999</v>
       </c>
       <c r="D10">
-        <v>8.3833333333333329</v>
+        <v>8.3777777780000005</v>
       </c>
       <c r="E10">
-        <v>8.31111111111111</v>
+        <v>8.4</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>8</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P10">
+        <v>75</v>
+      </c>
+      <c r="Q10">
         <v>69</v>
-      </c>
-      <c r="Q10">
-        <v>65</v>
       </c>
       <c r="R10">
         <v>48</v>
@@ -6310,75 +6311,75 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>8.5888888888888886</v>
+        <v>8.15</v>
       </c>
       <c r="D11">
-        <v>8.4111111111111114</v>
+        <v>8.3833333329999995</v>
       </c>
       <c r="E11">
-        <v>8.6000000000000014</v>
+        <v>8.3111111110000007</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P11">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="Q11">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="R11">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>7.7722222222222221</v>
+        <v>8.6444444439999995</v>
       </c>
       <c r="D12">
-        <v>8.0888888888888903</v>
+        <v>8.4666666670000001</v>
       </c>
       <c r="E12">
-        <v>7.7666666666666675</v>
+        <v>8.6555555559999995</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -6387,54 +6388,54 @@
         <v>9</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12">
         <v>3</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P12">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="Q12">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="R12">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>8.1555555555555568</v>
+        <v>7.7722222219999999</v>
       </c>
       <c r="D13">
-        <v>8.1388888888888893</v>
+        <v>8.0888888889999997</v>
       </c>
       <c r="E13">
-        <v>8.0444444444444443</v>
+        <v>7.766666667</v>
       </c>
       <c r="F13">
         <v>7</v>
@@ -6443,57 +6444,57 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>8</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P13">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q13">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="R13">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>8.5055555555555546</v>
+        <v>8.1555555559999995</v>
       </c>
       <c r="D14">
-        <v>8.2944444444444443</v>
+        <v>8.1388888890000004</v>
       </c>
       <c r="E14">
-        <v>8.3888888888888893</v>
+        <v>8.0444444439999998</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -6502,16 +6503,16 @@
         <v>7</v>
       </c>
       <c r="I14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14">
         <v>6</v>
@@ -6520,216 +6521,216 @@
         <v>8</v>
       </c>
       <c r="O14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P14">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q14">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R14">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C15">
-        <v>5.8944444444444439</v>
+        <v>8.5055555559999991</v>
       </c>
       <c r="D15">
-        <v>5.8722222222222227</v>
+        <v>8.2944444439999998</v>
       </c>
       <c r="E15">
-        <v>6.1999999999999993</v>
+        <v>8.3888888890000004</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>7</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6</v>
+      </c>
+      <c r="N15">
+        <v>8</v>
+      </c>
+      <c r="O15">
         <v>10</v>
       </c>
-      <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>8</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <v>7</v>
-      </c>
       <c r="P15">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q15">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="R15">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C16">
-        <v>7.9333333333333336</v>
+        <v>6.0611111109999998</v>
       </c>
       <c r="D16">
-        <v>8.6277777777777782</v>
+        <v>6.0388888889999999</v>
       </c>
       <c r="E16">
-        <v>8.1555555555555568</v>
+        <v>6.3666666669999996</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P16">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q16">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="R16">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>8.6111111111111107</v>
+        <v>7.9333333330000002</v>
       </c>
       <c r="D17">
-        <v>8.4722222222222214</v>
+        <v>8.6277777780000005</v>
       </c>
       <c r="E17">
-        <v>8.5222222222222221</v>
+        <v>8.1555555559999995</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>9</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P17">
         <v>71</v>
       </c>
       <c r="Q17">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R17">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>8.06111111111111</v>
+        <v>8.6833333330000002</v>
       </c>
       <c r="D18">
-        <v>8.2166666666666668</v>
+        <v>8.5388888890000008</v>
       </c>
       <c r="E18">
-        <v>8.1000000000000014</v>
+        <v>8.5888888889999997</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <v>9</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K18">
         <v>8</v>
@@ -6738,42 +6739,42 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P18">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q18">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R18">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>8.2444444444444454</v>
+        <v>8.0611111110000007</v>
       </c>
       <c r="D19">
-        <v>7.8388888888888886</v>
+        <v>8.2166666670000001</v>
       </c>
       <c r="E19">
-        <v>8.0333333333333332</v>
+        <v>8.1</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>9</v>
@@ -6782,128 +6783,128 @@
         <v>6</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J19">
         <v>7</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P19">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q19">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R19">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>7.9611111111111121</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D20">
-        <v>8.3500000000000014</v>
+        <v>7.8944444440000003</v>
       </c>
       <c r="E20">
-        <v>8.1888888888888882</v>
+        <v>8.0888888889999997</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>9</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J20">
         <v>7</v>
       </c>
       <c r="K20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O20">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P20">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q20">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="R20">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>7.8555555555555543</v>
+        <v>8.0333333329999999</v>
       </c>
       <c r="D21">
-        <v>8.2666666666666675</v>
+        <v>8.4166666669999994</v>
       </c>
       <c r="E21">
-        <v>8.1666666666666661</v>
+        <v>8.2555555559999991</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K21">
         <v>8</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <v>8</v>
@@ -6912,13 +6913,13 @@
         <v>6</v>
       </c>
       <c r="O21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P21">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q21">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R21">
         <v>45</v>
@@ -6926,75 +6927,75 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>8.6499999999999986</v>
+        <v>7.9111111110000003</v>
       </c>
       <c r="D22">
-        <v>8.3000000000000007</v>
+        <v>8.3222222220000006</v>
       </c>
       <c r="E22">
-        <v>8.4555555555555557</v>
+        <v>8.2222222219999992</v>
       </c>
       <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
         <v>5</v>
       </c>
-      <c r="G22">
-        <v>9</v>
-      </c>
-      <c r="H22">
-        <v>9</v>
-      </c>
-      <c r="I22">
-        <v>8</v>
-      </c>
       <c r="J22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P22">
         <v>70</v>
       </c>
       <c r="Q22">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R22">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>8.1777777777777771</v>
+        <v>8.65</v>
       </c>
       <c r="D23">
-        <v>7.8222222222222211</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="E23">
-        <v>7.9444444444444446</v>
+        <v>8.4555555560000002</v>
       </c>
       <c r="F23">
         <v>5</v>
@@ -7006,87 +7007,87 @@
         <v>9</v>
       </c>
       <c r="I23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J23">
         <v>7</v>
       </c>
       <c r="K23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P23">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q23">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="R23">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>8.2722222222222221</v>
+        <v>8.238888889</v>
       </c>
       <c r="D24">
-        <v>7.6944444444444446</v>
+        <v>7.8944444440000003</v>
       </c>
       <c r="E24">
-        <v>7.9222222222222216</v>
+        <v>8.0666666669999998</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>9</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K24">
         <v>6</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24">
         <v>8</v>
       </c>
       <c r="P24">
+        <v>68</v>
+      </c>
+      <c r="Q24">
         <v>66</v>
-      </c>
-      <c r="Q24">
-        <v>65</v>
       </c>
       <c r="R24">
         <v>47</v>
@@ -7094,90 +7095,90 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>7.9055555555555559</v>
+        <v>8.3444444440000005</v>
       </c>
       <c r="D25">
-        <v>7.7888888888888879</v>
+        <v>7.761111111</v>
       </c>
       <c r="E25">
-        <v>7.8444444444444441</v>
+        <v>7.988888889</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O25">
         <v>8</v>
       </c>
       <c r="P25">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q25">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R25">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26">
-        <v>8.2722222222222221</v>
+        <v>7.9777777780000001</v>
       </c>
       <c r="D26">
-        <v>7.7611111111111102</v>
+        <v>7.8555555559999997</v>
       </c>
       <c r="E26">
-        <v>7.9222222222222216</v>
+        <v>7.9111111110000003</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>9</v>
       </c>
       <c r="I26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K26">
         <v>7</v>
@@ -7186,19 +7187,19 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O26">
         <v>8</v>
       </c>
       <c r="P26">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q26">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R26">
         <v>49</v>
@@ -7206,55 +7207,55 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C27">
-        <v>7.2611111111111102</v>
+        <v>8.4055555559999995</v>
       </c>
       <c r="D27">
-        <v>8.0388888888888879</v>
+        <v>7.9</v>
       </c>
       <c r="E27">
-        <v>7.4333333333333327</v>
+        <v>8.1111111109999996</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27">
         <v>10</v>
       </c>
-      <c r="H27">
-        <v>8</v>
-      </c>
-      <c r="I27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>8</v>
-      </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <v>4</v>
-      </c>
-      <c r="N27">
-        <v>6</v>
-      </c>
       <c r="O27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P27">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q27">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="R27">
         <v>49</v>
@@ -7262,75 +7263,75 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C28">
-        <v>7.1166666666666663</v>
+        <v>7.261111111</v>
       </c>
       <c r="D28">
-        <v>6.9277777777777771</v>
+        <v>8.0388888890000008</v>
       </c>
       <c r="E28">
-        <v>6.5555555555555554</v>
+        <v>7.4333333330000002</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P28">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Q28">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="R28">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>7.3666666666666663</v>
+        <v>7.238888889</v>
       </c>
       <c r="D29">
-        <v>7.383333333333332</v>
+        <v>7.0388888889999999</v>
       </c>
       <c r="E29">
-        <v>7.3000000000000007</v>
+        <v>6.6555555560000004</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -7339,54 +7340,54 @@
         <v>9</v>
       </c>
       <c r="H29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J29">
         <v>6</v>
       </c>
       <c r="K29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P29">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q29">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="R29">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>6.916666666666667</v>
+        <v>7.4277777780000003</v>
       </c>
       <c r="D30">
-        <v>5.9499999999999993</v>
+        <v>7.4555555560000002</v>
       </c>
       <c r="E30">
-        <v>6.177777777777778</v>
+        <v>7.4222222220000003</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -7398,228 +7399,228 @@
         <v>6</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30">
         <v>6</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P30">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="R30">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C31">
-        <v>7.4388888888888891</v>
+        <v>6.9166666670000003</v>
       </c>
       <c r="D31">
-        <v>7.0222222222222221</v>
+        <v>5.95</v>
       </c>
       <c r="E31">
-        <v>6.822222222222222</v>
+        <v>6.1777777780000003</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>9</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>9</v>
       </c>
       <c r="O31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q31">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="R31">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>3.3111111111111113</v>
+        <v>7.55</v>
       </c>
       <c r="D32">
-        <v>3.4944444444444445</v>
+        <v>7.1444444440000003</v>
       </c>
       <c r="E32">
-        <v>3.5999999999999996</v>
+        <v>6.9222222220000003</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L32">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P32">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="R32">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C33">
-        <v>5.3555555555555561</v>
+        <v>3.3111111110000002</v>
       </c>
       <c r="D33">
-        <v>6.7111111111111112</v>
+        <v>3.494444444</v>
       </c>
       <c r="E33">
-        <v>5.9111111111111105</v>
+        <v>3.6</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33">
         <v>3</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>7</v>
       </c>
       <c r="P33">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q33">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="R33">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C34">
-        <v>6.2388888888888898</v>
+        <v>5.4666666670000001</v>
       </c>
       <c r="D34">
-        <v>4.5388888888888888</v>
+        <v>6.8333333329999997</v>
       </c>
       <c r="E34">
-        <v>5.2444444444444445</v>
+        <v>6.011111111</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -7628,101 +7629,101 @@
         <v>3</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P34">
+        <v>46</v>
+      </c>
+      <c r="Q34">
+        <v>43</v>
+      </c>
+      <c r="R34">
         <v>39</v>
-      </c>
-      <c r="Q34">
-        <v>37</v>
-      </c>
-      <c r="R34">
-        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C35">
-        <v>6.5444444444444443</v>
+        <v>6.238888889</v>
       </c>
       <c r="D35">
-        <v>6.4111111111111114</v>
+        <v>4.5388888889999999</v>
       </c>
       <c r="E35">
-        <v>6.4777777777777779</v>
+        <v>5.244444444</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>9</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P35">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q35">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="R35">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C36">
-        <v>6.844444444444445</v>
+        <v>6.6555555560000004</v>
       </c>
       <c r="D36">
-        <v>7.3999999999999995</v>
+        <v>6.5333333329999999</v>
       </c>
       <c r="E36">
-        <v>6.8999999999999995</v>
+        <v>6.5777777779999997</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -7731,149 +7732,149 @@
         <v>9</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O36">
         <v>9</v>
       </c>
       <c r="P36">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q36">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R36">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>6.9777777780000001</v>
+      </c>
+      <c r="D37">
+        <v>7.5388888889999999</v>
+      </c>
+      <c r="E37">
+        <v>7.0888888889999997</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>9</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>9</v>
+      </c>
+      <c r="P37">
+        <v>54</v>
+      </c>
+      <c r="Q37">
+        <v>53</v>
+      </c>
+      <c r="R37">
         <v>47</v>
-      </c>
-      <c r="C37">
-        <v>7.0888888888888886</v>
-      </c>
-      <c r="D37">
-        <v>6.905555555555555</v>
-      </c>
-      <c r="E37">
-        <v>6.7444444444444445</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>9</v>
-      </c>
-      <c r="H37">
-        <v>6</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>6</v>
-      </c>
-      <c r="K37">
-        <v>8</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-      <c r="N37">
-        <v>9</v>
-      </c>
-      <c r="O37">
-        <v>8</v>
-      </c>
-      <c r="P37">
-        <v>51</v>
-      </c>
-      <c r="Q37">
-        <v>51</v>
-      </c>
-      <c r="R37">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C38">
-        <v>3.0999999999999996</v>
+        <v>7.15</v>
       </c>
       <c r="D38">
-        <v>3.2277777777777774</v>
+        <v>6.9777777780000001</v>
       </c>
       <c r="E38">
-        <v>3.1666666666666665</v>
+        <v>6.8666666669999996</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L38">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P38">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="Q38">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="R38">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
@@ -7884,13 +7885,13 @@
         <v>54</v>
       </c>
       <c r="C39">
-        <v>4.4666666666666668</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="D39">
-        <v>5.0333333333333332</v>
+        <v>5.3944444440000003</v>
       </c>
       <c r="E39">
-        <v>4.5777777777777784</v>
+        <v>4.8111111109999998</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -7905,10 +7906,10 @@
         <v>2</v>
       </c>
       <c r="J39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -7923,13 +7924,13 @@
         <v>4</v>
       </c>
       <c r="P39">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R39">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -7940,13 +7941,13 @@
         <v>53</v>
       </c>
       <c r="C40">
-        <v>6.4944444444444445</v>
+        <v>6.494444444</v>
       </c>
       <c r="D40">
-        <v>5.5055555555555555</v>
+        <v>5.505555556</v>
       </c>
       <c r="E40">
-        <v>5.7777777777777777</v>
+        <v>5.7777777779999999</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -7996,13 +7997,13 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>5.833333333333333</v>
+        <v>6.2055555560000002</v>
       </c>
       <c r="D41">
-        <v>6.5777777777777775</v>
+        <v>6.75</v>
       </c>
       <c r="E41">
-        <v>6.0555555555555554</v>
+        <v>6.2888888889999999</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -8017,7 +8018,7 @@
         <v>2</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K41">
         <v>9</v>
@@ -8029,19 +8030,19 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O41">
         <v>9</v>
       </c>
       <c r="P41">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q41">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R41">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -8052,13 +8053,13 @@
         <v>50</v>
       </c>
       <c r="C42">
-        <v>4.8000000000000007</v>
+        <v>5.1888888890000002</v>
       </c>
       <c r="D42">
-        <v>5.7444444444444436</v>
+        <v>5.9444444440000002</v>
       </c>
       <c r="E42">
-        <v>5.1444444444444439</v>
+        <v>5.4444444440000002</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -8085,19 +8086,19 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P42">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q42">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R42">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -8108,13 +8109,13 @@
         <v>67</v>
       </c>
       <c r="C43">
-        <v>5.2444444444444445</v>
+        <v>5.3555555559999997</v>
       </c>
       <c r="D43">
-        <v>3.9833333333333325</v>
+        <v>4.1055555559999997</v>
       </c>
       <c r="E43">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -8123,7 +8124,7 @@
         <v>8</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -8147,13 +8148,13 @@
         <v>5</v>
       </c>
       <c r="P43">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q43">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R43">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -8164,13 +8165,13 @@
         <v>61</v>
       </c>
       <c r="C44">
-        <v>5.6055555555555561</v>
+        <v>5.6666666670000003</v>
       </c>
       <c r="D44">
-        <v>4.4833333333333325</v>
+        <v>4.733333333</v>
       </c>
       <c r="E44">
-        <v>4.9111111111111114</v>
+        <v>5.0444444439999998</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -8188,7 +8189,7 @@
         <v>2</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -8203,13 +8204,13 @@
         <v>6</v>
       </c>
       <c r="P44">
+        <v>37</v>
+      </c>
+      <c r="Q44">
         <v>36</v>
       </c>
-      <c r="Q44">
-        <v>35</v>
-      </c>
       <c r="R44">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -8220,13 +8221,13 @@
         <v>56</v>
       </c>
       <c r="C45">
-        <v>5.1833333333333336</v>
+        <v>5.244444444</v>
       </c>
       <c r="D45">
-        <v>5.1444444444444448</v>
+        <v>5.3944444440000003</v>
       </c>
       <c r="E45">
-        <v>5.1222222222222227</v>
+        <v>5.255555556</v>
       </c>
       <c r="F45">
         <v>3</v>
@@ -8244,7 +8245,7 @@
         <v>2</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -8259,13 +8260,13 @@
         <v>6</v>
       </c>
       <c r="P45">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q45">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R45">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
@@ -8276,13 +8277,13 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>5.5111111111111111</v>
+        <v>5.994444444</v>
       </c>
       <c r="D46">
-        <v>5.8944444444444439</v>
+        <v>6.1888888890000002</v>
       </c>
       <c r="E46">
-        <v>5.6111111111111107</v>
+        <v>5.9444444440000002</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -8291,13 +8292,13 @@
         <v>9</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>2</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K46">
         <v>9</v>
@@ -8309,19 +8310,19 @@
         <v>2</v>
       </c>
       <c r="N46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O46">
         <v>7</v>
       </c>
       <c r="P46">
+        <v>45</v>
+      </c>
+      <c r="Q46">
         <v>42</v>
       </c>
-      <c r="Q46">
-        <v>39</v>
-      </c>
       <c r="R46">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -8332,13 +8333,13 @@
         <v>55</v>
       </c>
       <c r="C47">
-        <v>6.0166666666666675</v>
+        <v>6.25</v>
       </c>
       <c r="D47">
-        <v>5.2722222222222221</v>
+        <v>5.505555556</v>
       </c>
       <c r="E47">
-        <v>5.4333333333333336</v>
+        <v>5.6333333330000004</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -8347,13 +8348,13 @@
         <v>9</v>
       </c>
       <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
         <v>4</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
       </c>
       <c r="K47">
         <v>5</v>
@@ -8371,13 +8372,13 @@
         <v>6</v>
       </c>
       <c r="P47">
+        <v>43</v>
+      </c>
+      <c r="Q47">
         <v>41</v>
       </c>
-      <c r="Q47">
-        <v>39</v>
-      </c>
       <c r="R47">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
@@ -8388,13 +8389,13 @@
         <v>57</v>
       </c>
       <c r="C48">
-        <v>4.177777777777778</v>
+        <v>4.1777777780000003</v>
       </c>
       <c r="D48">
-        <v>4.7611111111111102</v>
+        <v>4.761111111</v>
       </c>
       <c r="E48">
-        <v>4.2666666666666666</v>
+        <v>4.266666667</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -8444,13 +8445,13 @@
         <v>64</v>
       </c>
       <c r="C49">
-        <v>3.4888888888888889</v>
+        <v>3.488888889</v>
       </c>
       <c r="D49">
-        <v>4.0277777777777777</v>
+        <v>4.0277777779999999</v>
       </c>
       <c r="E49">
-        <v>3.7777777777777777</v>
+        <v>3.7777777779999999</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -8497,16 +8498,16 @@
         <v>166</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50">
-        <v>4.6222222222222227</v>
+        <v>4.761111111</v>
       </c>
       <c r="D50">
-        <v>3.1055555555555556</v>
+        <v>3.244444444</v>
       </c>
       <c r="E50">
-        <v>3.7777777777777777</v>
+        <v>3.9444444440000002</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -8536,16 +8537,16 @@
         <v>9</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P50">
+        <v>30</v>
+      </c>
+      <c r="Q50">
         <v>29</v>
       </c>
-      <c r="Q50">
-        <v>28</v>
-      </c>
       <c r="R50">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -8556,13 +8557,13 @@
         <v>59</v>
       </c>
       <c r="C51">
-        <v>4.4611111111111112</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D51">
-        <v>4.4499999999999993</v>
+        <v>4.5888888889999997</v>
       </c>
       <c r="E51">
-        <v>4.1999999999999993</v>
+        <v>4.3666666669999996</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -8592,16 +8593,16 @@
         <v>7</v>
       </c>
       <c r="O51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P51">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q51">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R51">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
@@ -8612,13 +8613,13 @@
         <v>58</v>
       </c>
       <c r="C52">
-        <v>2.9611111111111108</v>
+        <v>3.1</v>
       </c>
       <c r="D52">
-        <v>4.2611111111111102</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E52">
-        <v>3.6111111111111112</v>
+        <v>3.7777777779999999</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -8648,16 +8649,16 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P52">
+        <v>27</v>
+      </c>
+      <c r="Q52">
         <v>26</v>
       </c>
-      <c r="Q52">
-        <v>25</v>
-      </c>
       <c r="R52">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -8668,19 +8669,19 @@
         <v>68</v>
       </c>
       <c r="C53">
-        <v>4.322222222222222</v>
+        <v>4.738888889</v>
       </c>
       <c r="D53">
-        <v>3.7388888888888889</v>
+        <v>3.9666666670000001</v>
       </c>
       <c r="E53">
-        <v>3.9777777777777774</v>
+        <v>4.2777777779999999</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -8701,19 +8702,19 @@
         <v>1</v>
       </c>
       <c r="N53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O53">
         <v>5</v>
       </c>
       <c r="P53">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q53">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R53">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
@@ -8721,16 +8722,16 @@
         <v>170</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54">
-        <v>2.838888888888889</v>
+        <v>2.8944444439999999</v>
       </c>
       <c r="D54">
-        <v>2.8055555555555554</v>
+        <v>2.861111111</v>
       </c>
       <c r="E54">
-        <v>2.8222222222222224</v>
+        <v>2.877777778</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -8751,7 +8752,7 @@
         <v>1</v>
       </c>
       <c r="L54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M54">
         <v>2</v>
@@ -8763,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="P54">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q54">
         <v>22</v>
@@ -8780,13 +8781,13 @@
         <v>69</v>
       </c>
       <c r="C55">
-        <v>5.2611111111111111</v>
+        <v>5.511111111</v>
       </c>
       <c r="D55">
-        <v>3.9388888888888891</v>
+        <v>4</v>
       </c>
       <c r="E55">
-        <v>4.5</v>
+        <v>4.6333333330000004</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -8813,19 +8814,19 @@
         <v>2</v>
       </c>
       <c r="N55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O55">
         <v>4</v>
       </c>
       <c r="P55">
+        <v>35</v>
+      </c>
+      <c r="Q55">
         <v>34</v>
       </c>
-      <c r="Q55">
-        <v>33</v>
-      </c>
       <c r="R55">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -8836,13 +8837,13 @@
         <v>65</v>
       </c>
       <c r="C56">
-        <v>3.3388888888888886</v>
+        <v>3.3388888890000001</v>
       </c>
       <c r="D56">
-        <v>3.9111111111111114</v>
+        <v>3.9111111109999999</v>
       </c>
       <c r="E56">
-        <v>3.5999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -8892,19 +8893,19 @@
         <v>72</v>
       </c>
       <c r="C57">
-        <v>3.6555555555555554</v>
+        <v>3.8833333329999999</v>
       </c>
       <c r="D57">
-        <v>3.4388888888888887</v>
+        <v>3.8555555560000001</v>
       </c>
       <c r="E57">
-        <v>3.5555555555555554</v>
+        <v>3.8555555560000001</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -8916,7 +8917,7 @@
         <v>3</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L57">
         <v>3</v>
@@ -8931,13 +8932,13 @@
         <v>5</v>
       </c>
       <c r="P57">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R57">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
@@ -8948,13 +8949,13 @@
         <v>60</v>
       </c>
       <c r="C58">
-        <v>4.5222222222222221</v>
+        <v>4.5222222219999999</v>
       </c>
       <c r="D58">
         <v>4.3499999999999996</v>
       </c>
       <c r="E58">
-        <v>4.3666666666666663</v>
+        <v>4.3666666669999996</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -9004,13 +9005,13 @@
         <v>71</v>
       </c>
       <c r="C59">
-        <v>2.838888888888889</v>
+        <v>2.9777777780000001</v>
       </c>
       <c r="D59">
-        <v>3.2222222222222223</v>
+        <v>3.361111111</v>
       </c>
       <c r="E59">
-        <v>2.9777777777777779</v>
+        <v>3.1444444439999999</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -9040,16 +9041,16 @@
         <v>2</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P59">
+        <v>24</v>
+      </c>
+      <c r="Q59">
         <v>23</v>
       </c>
-      <c r="Q59">
-        <v>22</v>
-      </c>
       <c r="R59">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
@@ -9060,19 +9061,19 @@
         <v>70</v>
       </c>
       <c r="C60">
-        <v>2.8000000000000003</v>
+        <v>3.0277777779999999</v>
       </c>
       <c r="D60">
-        <v>3.1833333333333331</v>
+        <v>3.6</v>
       </c>
       <c r="E60">
-        <v>3.0333333333333332</v>
+        <v>3.3333333330000001</v>
       </c>
       <c r="F60">
         <v>1</v>
       </c>
       <c r="G60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -9084,7 +9085,7 @@
         <v>1</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -9099,13 +9100,13 @@
         <v>4</v>
       </c>
       <c r="P60">
+        <v>24</v>
+      </c>
+      <c r="Q60">
         <v>22</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>20</v>
-      </c>
-      <c r="R60">
-        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
@@ -9116,19 +9117,19 @@
         <v>74</v>
       </c>
       <c r="C61">
-        <v>2.3888888888888888</v>
+        <v>2.5555555559999998</v>
       </c>
       <c r="D61">
-        <v>2.8000000000000003</v>
+        <v>2.9666666670000001</v>
       </c>
       <c r="E61">
-        <v>2.5333333333333332</v>
+        <v>2.7</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -9155,13 +9156,13 @@
         <v>1</v>
       </c>
       <c r="P61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q61">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R61">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
@@ -9172,52 +9173,52 @@
         <v>77</v>
       </c>
       <c r="C62">
-        <v>3.0277777777777777</v>
+        <v>3.4444444440000002</v>
       </c>
       <c r="D62">
-        <v>2.8277777777777779</v>
+        <v>3.0555555559999998</v>
       </c>
       <c r="E62">
-        <v>2.7777777777777777</v>
+        <v>3.0777777780000002</v>
       </c>
       <c r="F62">
         <v>2</v>
       </c>
       <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
         <v>5</v>
       </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
-      <c r="I62">
-        <v>2</v>
-      </c>
-      <c r="J62">
-        <v>2</v>
-      </c>
-      <c r="K62">
-        <v>3</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>4</v>
-      </c>
       <c r="O62">
         <v>1</v>
       </c>
       <c r="P62">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R62">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
@@ -9228,13 +9229,13 @@
         <v>73</v>
       </c>
       <c r="C63">
-        <v>4.7611111111111111</v>
+        <v>4.761111111</v>
       </c>
       <c r="D63">
-        <v>3.6111111111111112</v>
+        <v>3.611111111</v>
       </c>
       <c r="E63">
-        <v>3.9888888888888889</v>
+        <v>3.988888889</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -9284,13 +9285,13 @@
         <v>66</v>
       </c>
       <c r="C64">
-        <v>3.5333333333333332</v>
+        <v>3.6722222219999998</v>
       </c>
       <c r="D64">
-        <v>3.6999999999999997</v>
+        <v>3.8388888890000001</v>
       </c>
       <c r="E64">
-        <v>3.5111111111111111</v>
+        <v>3.6777777779999998</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -9320,16 +9321,16 @@
         <v>3</v>
       </c>
       <c r="O64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P64">
+        <v>28</v>
+      </c>
+      <c r="Q64">
         <v>27</v>
       </c>
-      <c r="Q64">
-        <v>26</v>
-      </c>
       <c r="R64">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -9337,22 +9338,22 @@
         <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65">
-        <v>3.2611111111111111</v>
+        <v>3.738888889</v>
       </c>
       <c r="D65">
-        <v>2.6833333333333331</v>
+        <v>3.1611111109999999</v>
       </c>
       <c r="E65">
-        <v>2.9444444444444446</v>
+        <v>3.377777778</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -9364,7 +9365,7 @@
         <v>2</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -9373,19 +9374,19 @@
         <v>1</v>
       </c>
       <c r="N65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O65">
         <v>3</v>
       </c>
       <c r="P65">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q65">
+        <v>24</v>
+      </c>
+      <c r="R65">
         <v>21</v>
-      </c>
-      <c r="R65">
-        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -9393,22 +9394,22 @@
         <v>182</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66">
-        <v>3.0666666666666669</v>
+        <v>3.483333333</v>
       </c>
       <c r="D66">
-        <v>2.7111111111111108</v>
+        <v>2.9388888889999998</v>
       </c>
       <c r="E66">
-        <v>2.8666666666666663</v>
+        <v>3.1666666669999999</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -9429,19 +9430,19 @@
         <v>2</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O66">
         <v>2</v>
       </c>
       <c r="P66">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q66">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R66">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
@@ -9449,16 +9450,16 @@
         <v>183</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67">
-        <v>2.3166666666666669</v>
+        <v>2.65</v>
       </c>
       <c r="D67">
-        <v>2.2999999999999998</v>
+        <v>2.6333333329999999</v>
       </c>
       <c r="E67">
-        <v>2.3333333333333335</v>
+        <v>2.7222222220000001</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -9479,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -9488,16 +9489,16 @@
         <v>1</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P67">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q67">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R67">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
@@ -9508,19 +9509,19 @@
         <v>76</v>
       </c>
       <c r="C68">
-        <v>3.2444444444444445</v>
+        <v>3.6611111109999999</v>
       </c>
       <c r="D68">
-        <v>2.8611111111111112</v>
+        <v>3.0888888890000001</v>
       </c>
       <c r="E68">
-        <v>3.0444444444444443</v>
+        <v>3.3444444440000001</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -9541,19 +9542,19 @@
         <v>1</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O68">
         <v>4</v>
       </c>
       <c r="P68">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q68">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R68">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
@@ -9561,16 +9562,16 @@
         <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69">
-        <v>2.1555555555555554</v>
+        <v>2.4055555559999999</v>
       </c>
       <c r="D69">
-        <v>2.322222222222222</v>
+        <v>2.3833333329999999</v>
       </c>
       <c r="E69">
-        <v>2.2111111111111108</v>
+        <v>2.3444444440000001</v>
       </c>
       <c r="F69">
         <v>3</v>
@@ -9597,19 +9598,19 @@
         <v>1</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O69">
         <v>2</v>
       </c>
       <c r="P69">
+        <v>19</v>
+      </c>
+      <c r="Q69">
         <v>18</v>
       </c>
-      <c r="Q69">
-        <v>17</v>
-      </c>
       <c r="R69">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
@@ -9617,22 +9618,22 @@
         <v>187</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70">
-        <v>1.4166666666666667</v>
+        <v>1.5833333329999999</v>
       </c>
       <c r="D70">
-        <v>1.6277777777777778</v>
+        <v>1.794444444</v>
       </c>
       <c r="E70">
-        <v>1.4777777777777779</v>
+        <v>1.6444444439999999</v>
       </c>
       <c r="F70">
         <v>2</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -9659,13 +9660,13 @@
         <v>1</v>
       </c>
       <c r="P70">
+        <v>15</v>
+      </c>
+      <c r="Q70">
         <v>14</v>
       </c>
-      <c r="Q70">
-        <v>13</v>
-      </c>
       <c r="R70">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
@@ -9673,16 +9674,16 @@
         <v>188</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C71">
-        <v>2.1555555555555554</v>
+        <v>2.5444444439999998</v>
       </c>
       <c r="D71">
-        <v>1.9333333333333331</v>
+        <v>2.1333333329999999</v>
       </c>
       <c r="E71">
-        <v>2.0444444444444443</v>
+        <v>2.3444444440000001</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -9709,19 +9710,19 @@
         <v>1</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q71">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R71">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
@@ -9729,16 +9730,16 @@
         <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72">
-        <v>2.161111111111111</v>
+        <v>2.1611111109999999</v>
       </c>
       <c r="D72">
-        <v>2.3444444444444446</v>
+        <v>2.3444444440000001</v>
       </c>
       <c r="E72">
-        <v>2.2777777777777777</v>
+        <v>2.2777777779999999</v>
       </c>
       <c r="F72">
         <v>3</v>
@@ -9785,22 +9786,22 @@
         <v>190</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73">
-        <v>1.6222222222222222</v>
+        <v>1.9277777780000001</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>2.3055555559999998</v>
       </c>
       <c r="E73">
-        <v>1.822222222222222</v>
+        <v>2.1555555559999999</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -9824,16 +9825,16 @@
         <v>1</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q73">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R73">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
@@ -9841,22 +9842,22 @@
         <v>191</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74">
-        <v>1.3722222222222222</v>
+        <v>1.7888888890000001</v>
       </c>
       <c r="D74">
-        <v>1.5555555555555556</v>
+        <v>1.7833333330000001</v>
       </c>
       <c r="E74">
-        <v>1.3888888888888888</v>
+        <v>1.688888889</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -9877,19 +9878,19 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O74">
         <v>1</v>
       </c>
       <c r="P74">
+        <v>13</v>
+      </c>
+      <c r="Q74">
+        <v>12</v>
+      </c>
+      <c r="R74">
         <v>11</v>
-      </c>
-      <c r="Q74">
-        <v>10</v>
-      </c>
-      <c r="R74">
-        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
@@ -9897,16 +9898,16 @@
         <v>192</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75">
-        <v>1.6444444444444446</v>
+        <v>1.8388888889999999</v>
       </c>
       <c r="D75">
-        <v>2.0388888888888892</v>
+        <v>2.2166666670000001</v>
       </c>
       <c r="E75">
-        <v>1.9777777777777779</v>
+        <v>2.1444444439999999</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -9918,10 +9919,10 @@
         <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -9939,13 +9940,13 @@
         <v>2</v>
       </c>
       <c r="P75">
+        <v>19</v>
+      </c>
+      <c r="Q75">
         <v>17</v>
       </c>
-      <c r="Q75">
-        <v>15</v>
-      </c>
       <c r="R75">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
@@ -9953,16 +9954,16 @@
         <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76">
-        <v>2.4333333333333331</v>
+        <v>2.5722222220000002</v>
       </c>
       <c r="D76">
-        <v>2.0500000000000003</v>
+        <v>2.1888888889999998</v>
       </c>
       <c r="E76">
-        <v>2.1444444444444444</v>
+        <v>2.3111111110000002</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -9992,16 +9993,16 @@
         <v>3</v>
       </c>
       <c r="O76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P76">
+        <v>19</v>
+      </c>
+      <c r="Q76">
         <v>18</v>
       </c>
-      <c r="Q76">
-        <v>17</v>
-      </c>
       <c r="R76">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
@@ -10009,16 +10010,16 @@
         <v>194</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C77">
-        <v>2.2666666666666666</v>
+        <v>2.4055555559999999</v>
       </c>
       <c r="D77">
-        <v>1.7222222222222223</v>
+        <v>1.861111111</v>
       </c>
       <c r="E77">
-        <v>2.0111111111111111</v>
+        <v>2.1777777779999998</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -10048,16 +10049,16 @@
         <v>4</v>
       </c>
       <c r="O77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P77">
+        <v>17</v>
+      </c>
+      <c r="Q77">
         <v>16</v>
       </c>
-      <c r="Q77">
-        <v>15</v>
-      </c>
       <c r="R77">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
@@ -10065,16 +10066,16 @@
         <v>195</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78">
-        <v>1.7944444444444443</v>
+        <v>1.794444444</v>
       </c>
       <c r="D78">
-        <v>1.7999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="E78">
-        <v>1.7777777777777777</v>
+        <v>1.7777777779999999</v>
       </c>
       <c r="F78">
         <v>3</v>
@@ -10121,22 +10122,22 @@
         <v>196</v>
       </c>
       <c r="B79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79">
-        <v>2.2833333333333332</v>
+        <v>2.7</v>
       </c>
       <c r="D79">
-        <v>1.9055555555555554</v>
+        <v>2.1333333329999999</v>
       </c>
       <c r="E79">
-        <v>2.2000000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="F79">
         <v>3</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -10157,19 +10158,19 @@
         <v>2</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O79">
         <v>3</v>
       </c>
       <c r="P79">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q79">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R79">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
